--- a/Dataset/Authors/LUCAN.xlsx
+++ b/Dataset/Authors/LUCAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD9B024-C06D-4375-B185-6D0B73DF62DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD894A-6B73-486F-81CD-8ECC153170EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,9 +250,6 @@
     <t>semustus</t>
   </si>
   <si>
-    <t>septemvir</t>
-  </si>
-  <si>
     <t>signifer</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>septemviri</t>
   </si>
 </sst>
 </file>
@@ -871,10 +871,10 @@
     </row>
     <row r="5" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B77" s="7">
         <v>1</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7">
         <v>7</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="7">
         <v>1</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="7">
         <v>1</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="7">
         <v>1</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="7">
         <v>6</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="7">
         <v>1</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="84" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7">
         <v>2</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="85" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="7">
         <v>1</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="86" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="7">
         <v>11</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="7">
         <v>1</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="88" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="7">
         <v>1</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="7">
         <v>1</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="90" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="7">
         <v>1</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="7">
         <v>2</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="92" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="7">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="93" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7">
         <v>1</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="94" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="95" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="7">
         <v>1</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="96" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="97" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="7">
         <v>1</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="98" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="7">
         <v>10</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="99" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="7">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="100" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="7">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="101" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="7">
         <v>3</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="102" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="103" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7">
         <v>6</v>
@@ -4137,6 +4137,9 @@
       <c r="AA103" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B103">
+    <sortCondition ref="A78:A103"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
